--- a/Teams/csk.xlsx
+++ b/Teams/csk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\Trial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyom/project/Betting-Mate/Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379B8C5C-D4E2-48C4-8C4E-938245CEAB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB827659-9762-5A47-9D6A-9C7402E4DE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="1500" windowWidth="3456" windowHeight="10800" xr2:uid="{AC47ED3B-F6CF-44F3-82C1-DFF7FDF12CAE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AC47ED3B-F6CF-44F3-82C1-DFF7FDF12CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>MS Dhoni</t>
   </si>
@@ -36,9 +36,6 @@
     <t>RD Gaikwad</t>
   </si>
   <si>
-    <t>AT Rayudu</t>
-  </si>
-  <si>
     <t>Shivam Dube</t>
   </si>
   <si>
@@ -51,42 +48,27 @@
     <t>Simarjeet Singh</t>
   </si>
   <si>
-    <t>Subhranshu Senapati</t>
-  </si>
-  <si>
     <t>Matheesha Pathirana</t>
   </si>
   <si>
     <t>TU Deshpande</t>
   </si>
   <si>
-    <t>Bhagath Varma</t>
-  </si>
-  <si>
     <t>Ajay Mandal</t>
   </si>
   <si>
-    <t>KA Jamieson</t>
-  </si>
-  <si>
     <t>Nishant Sindhu</t>
   </si>
   <si>
     <t>Shaik Rasheed</t>
   </si>
   <si>
-    <t>BA Stokes</t>
-  </si>
-  <si>
     <t>AM Rahane</t>
   </si>
   <si>
     <t>DL Chahar</t>
   </si>
   <si>
-    <t>D Pretorius</t>
-  </si>
-  <si>
     <t>M Theekshana</t>
   </si>
   <si>
@@ -105,7 +87,22 @@
     <t>player_name</t>
   </si>
   <si>
-    <t>ss</t>
+    <t>Sameer Rizvi</t>
+  </si>
+  <si>
+    <t>Avanish Rao Aravelly</t>
+  </si>
+  <si>
+    <t>Rachin Ravindra</t>
+  </si>
+  <si>
+    <t>Daryl Mitchell</t>
+  </si>
+  <si>
+    <t>Mustafizur Rahman</t>
+  </si>
+  <si>
+    <t>SN Thakur</t>
   </si>
 </sst>
 </file>
@@ -170,9 +167,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,7 +207,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -316,7 +313,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -458,7 +455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -466,148 +463,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED78BB5-927F-434C-A4B2-5816AF97C5D9}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R4:R28">
+    <sortCondition ref="R4:R28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Teams/csk.xlsx
+++ b/Teams/csk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyom/project/Betting-Mate/Teams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Betting Mate\Teams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB827659-9762-5A47-9D6A-9C7402E4DE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E647404A-6C06-4CA0-BD2A-BAAAA9E6B7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AC47ED3B-F6CF-44F3-82C1-DFF7FDF12CAE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC47ED3B-F6CF-44F3-82C1-DFF7FDF12CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Shaik Rasheed</t>
   </si>
   <si>
-    <t>AM Rahane</t>
-  </si>
-  <si>
     <t>DL Chahar</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>SN Thakur</t>
+  </si>
+  <si>
+    <t>Ajinkya Rahane</t>
   </si>
 </sst>
 </file>
@@ -469,134 +469,134 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>8</v>
       </c>

--- a/Teams/csk.xlsx
+++ b/Teams/csk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Betting Mate\Teams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E647404A-6C06-4CA0-BD2A-BAAAA9E6B7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C347C2A-5F3F-421C-B25E-BD795BF3F8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AC47ED3B-F6CF-44F3-82C1-DFF7FDF12CAE}"/>
   </bookViews>
@@ -33,27 +33,15 @@
     <t>Devon Conway</t>
   </si>
   <si>
-    <t>RD Gaikwad</t>
-  </si>
-  <si>
     <t>Shivam Dube</t>
   </si>
   <si>
-    <t>MM Ali</t>
-  </si>
-  <si>
-    <t>RA Jadeja</t>
-  </si>
-  <si>
     <t>Simarjeet Singh</t>
   </si>
   <si>
     <t>Matheesha Pathirana</t>
   </si>
   <si>
-    <t>TU Deshpande</t>
-  </si>
-  <si>
     <t>Ajay Mandal</t>
   </si>
   <si>
@@ -63,24 +51,9 @@
     <t>Shaik Rasheed</t>
   </si>
   <si>
-    <t>DL Chahar</t>
-  </si>
-  <si>
-    <t>M Theekshana</t>
-  </si>
-  <si>
-    <t>MJ Santner</t>
-  </si>
-  <si>
     <t>Mukesh Choudhary</t>
   </si>
   <si>
-    <t>PH Solanki</t>
-  </si>
-  <si>
-    <t>RS Hangargekar</t>
-  </si>
-  <si>
     <t>player_name</t>
   </si>
   <si>
@@ -99,10 +72,37 @@
     <t>Mustafizur Rahman</t>
   </si>
   <si>
-    <t>SN Thakur</t>
-  </si>
-  <si>
     <t>Ajinkya Rahane</t>
+  </si>
+  <si>
+    <t>Deepak Chahar</t>
+  </si>
+  <si>
+    <t>Shardul Thakur</t>
+  </si>
+  <si>
+    <t>Maheesh Theekshana</t>
+  </si>
+  <si>
+    <t>Mitchell Santner</t>
+  </si>
+  <si>
+    <t>Moeen Ali</t>
+  </si>
+  <si>
+    <t>Prashant Solanki</t>
+  </si>
+  <si>
+    <t>Ravindra Jadeja</t>
+  </si>
+  <si>
+    <t>Ruturaj Gaikwad</t>
+  </si>
+  <si>
+    <t>Rajvardhan Hangargekar</t>
+  </si>
+  <si>
+    <t>Tushar Deshpande</t>
   </si>
 </sst>
 </file>
@@ -146,9 +146,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,147 +466,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED78BB5-927F-434C-A4B2-5816AF97C5D9}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>8</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B26" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R4:R28">
-    <sortCondition ref="R4:R28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A26">
+    <sortCondition ref="A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
